--- a/adistetsa/saved_files/DataKeuangan/kuitansi.xlsx
+++ b/adistetsa/saved_files/DataKeuangan/kuitansi.xlsx
@@ -943,7 +943,11 @@
     </row>
     <row r="13">
       <c r="B13" s="6" t="n"/>
-      <c r="C13" s="25" t="n"/>
+      <c r="C13" s="25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
           <t>Dana Peran Serta Masyarakat Insindental</t>
@@ -972,7 +976,7 @@
       </c>
       <c r="D15" s="30" t="inlineStr">
         <is>
-          <t>Rp. 10000</t>
+          <t>Rp. 10200000</t>
         </is>
       </c>
       <c r="E15" s="32" t="n"/>
